--- a/contratos/contratos-12-2010.xlsx
+++ b/contratos/contratos-12-2010.xlsx
@@ -376,10 +376,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RETAMAR JOSE LUIS</t>
@@ -583,217 +583,217 @@
     <t>11</t>
   </si>
   <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>46.974,45</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>2.464,00</t>
-  </si>
-  <si>
-    <t>27.440,00</t>
-  </si>
-  <si>
-    <t>131.909,72</t>
-  </si>
-  <si>
-    <t>7.482,92</t>
-  </si>
-  <si>
-    <t>328,50</t>
-  </si>
-  <si>
-    <t>6.200,42</t>
-  </si>
-  <si>
-    <t>7.496,34</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>662,00</t>
-  </si>
-  <si>
-    <t>500,15</t>
-  </si>
-  <si>
-    <t>10.310,00</t>
-  </si>
-  <si>
-    <t>11.443,00</t>
-  </si>
-  <si>
-    <t>7.940,60</t>
-  </si>
-  <si>
-    <t>2.393,00</t>
-  </si>
-  <si>
-    <t>1.486,40</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>4.588,29</t>
-  </si>
-  <si>
-    <t>37.533,57</t>
-  </si>
-  <si>
-    <t>54,00</t>
-  </si>
-  <si>
-    <t>1.449,12</t>
-  </si>
-  <si>
-    <t>1.496,56</t>
-  </si>
-  <si>
-    <t>2.467,40</t>
-  </si>
-  <si>
-    <t>1.895,00</t>
-  </si>
-  <si>
-    <t>310,24</t>
-  </si>
-  <si>
-    <t>153,72</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>1.399,98</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>2.035,00</t>
-  </si>
-  <si>
-    <t>178,00</t>
-  </si>
-  <si>
-    <t>4.258,00</t>
-  </si>
-  <si>
-    <t>1.610,00</t>
-  </si>
-  <si>
-    <t>325,40</t>
-  </si>
-  <si>
-    <t>1,24</t>
-  </si>
-  <si>
-    <t>0,02</t>
-  </si>
-  <si>
-    <t>100.170,00</t>
-  </si>
-  <si>
-    <t>38,80</t>
-  </si>
-  <si>
-    <t>9.080,10</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>14,95</t>
-  </si>
-  <si>
-    <t>145,05</t>
-  </si>
-  <si>
-    <t>14.725,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>18.600,00</t>
-  </si>
-  <si>
-    <t>657,32</t>
-  </si>
-  <si>
-    <t>144,93</t>
-  </si>
-  <si>
-    <t>294,20</t>
-  </si>
-  <si>
-    <t>428,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>229,90</t>
-  </si>
-  <si>
-    <t>544,00</t>
-  </si>
-  <si>
-    <t>6,40</t>
-  </si>
-  <si>
-    <t>2.430,00</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>21.282,53</t>
-  </si>
-  <si>
-    <t>1.049,00</t>
-  </si>
-  <si>
-    <t>216,00</t>
-  </si>
-  <si>
-    <t>143,90</t>
-  </si>
-  <si>
-    <t>2.856,63</t>
-  </si>
-  <si>
-    <t>564,46</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>709.427,75</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>1.810,00</t>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>46974.45</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>2464.00</t>
+  </si>
+  <si>
+    <t>27440.00</t>
+  </si>
+  <si>
+    <t>131909.72</t>
+  </si>
+  <si>
+    <t>7482.92</t>
+  </si>
+  <si>
+    <t>328.50</t>
+  </si>
+  <si>
+    <t>6200.42</t>
+  </si>
+  <si>
+    <t>7496.34</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>662.00</t>
+  </si>
+  <si>
+    <t>500.15</t>
+  </si>
+  <si>
+    <t>10310.00</t>
+  </si>
+  <si>
+    <t>11443.00</t>
+  </si>
+  <si>
+    <t>7940.60</t>
+  </si>
+  <si>
+    <t>2393.00</t>
+  </si>
+  <si>
+    <t>1486.40</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>4588.29</t>
+  </si>
+  <si>
+    <t>37533.57</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>1449.12</t>
+  </si>
+  <si>
+    <t>1496.56</t>
+  </si>
+  <si>
+    <t>2467.40</t>
+  </si>
+  <si>
+    <t>1895.00</t>
+  </si>
+  <si>
+    <t>310.24</t>
+  </si>
+  <si>
+    <t>153.72</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>1399.98</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>2035.00</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>4258.00</t>
+  </si>
+  <si>
+    <t>1610.00</t>
+  </si>
+  <si>
+    <t>325.40</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>100170.00</t>
+  </si>
+  <si>
+    <t>38.80</t>
+  </si>
+  <si>
+    <t>9080.10</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>14.95</t>
+  </si>
+  <si>
+    <t>145.05</t>
+  </si>
+  <si>
+    <t>14725.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>18600.00</t>
+  </si>
+  <si>
+    <t>657.32</t>
+  </si>
+  <si>
+    <t>144.93</t>
+  </si>
+  <si>
+    <t>294.20</t>
+  </si>
+  <si>
+    <t>428.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>229.90</t>
+  </si>
+  <si>
+    <t>544.00</t>
+  </si>
+  <si>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>2430.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>21282.53</t>
+  </si>
+  <si>
+    <t>1049.00</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>143.90</t>
+  </si>
+  <si>
+    <t>2856.63</t>
+  </si>
+  <si>
+    <t>564.46</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>709427.75</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>1810.00</t>
   </si>
 </sst>
 </file>
